--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Results_Metrics_Fold_29.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Results_Metrics_Fold_29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="9">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Tested Instance</t>
-  </si>
-  <si>
-    <t>100.00%</t>
   </si>
   <si>
     <t>0.00%</t>
@@ -447,10 +444,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +467,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,10 +513,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,10 +536,10 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,10 +559,10 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,10 +582,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,10 +605,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,10 +628,10 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
